--- a/研发文档/FeatureList.xlsx
+++ b/研发文档/FeatureList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24760" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="24740" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="FeatureList" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
   <si>
     <t>Feature Name</t>
   </si>
@@ -361,12 +361,24 @@
   <si>
     <t>食物的数据模型文件</t>
   </si>
+  <si>
+    <t>本期必须实现的强制性功能需求</t>
+  </si>
+  <si>
+    <t>性价比不错的需求有时间就尽可能做没时间考虑下期做</t>
+  </si>
+  <si>
+    <t>本期由于条件限制不做，在后续的项目排期中酌情实现</t>
+  </si>
+  <si>
+    <t>为了推广考虑的功能，需要考虑投入产出</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -456,6 +468,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -491,7 +509,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -527,12 +545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -541,6 +553,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -891,7 +912,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -939,7 +960,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1">
@@ -956,7 +977,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -971,7 +992,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="9">
@@ -988,7 +1009,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="14"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="9">
         <v>4</v>
       </c>
@@ -1003,7 +1024,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
-      <c r="A6" s="14"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="9">
         <v>5</v>
       </c>
@@ -1018,7 +1039,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="9">
@@ -1035,22 +1056,22 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="13"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="9">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
+      <c r="E8" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="13"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="9">
         <v>8</v>
       </c>
@@ -1065,7 +1086,7 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="13"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="9">
         <v>9</v>
       </c>
@@ -1080,7 +1101,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="9">
@@ -1097,7 +1118,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="13"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="9">
         <v>11</v>
       </c>
@@ -1112,7 +1133,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="13"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="9">
         <v>12</v>
       </c>
@@ -1127,7 +1148,7 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="9">
@@ -1144,7 +1165,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="30">
-      <c r="A15" s="13"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="9">
         <v>14</v>
       </c>
@@ -1159,7 +1180,7 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="9">
@@ -1176,7 +1197,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="13"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="9">
         <v>16</v>
       </c>
@@ -1191,7 +1212,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="13"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="9">
         <v>17</v>
       </c>
@@ -1206,7 +1227,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="13"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="9">
         <v>18</v>
       </c>
@@ -1221,7 +1242,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="9">
@@ -1238,7 +1259,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="13"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="9">
         <v>20</v>
       </c>
@@ -1253,7 +1274,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="13"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="9">
         <v>21</v>
       </c>
@@ -1268,7 +1289,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="13"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="9">
         <v>22</v>
       </c>
@@ -1283,7 +1304,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="9">
@@ -1300,22 +1321,22 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="13"/>
-      <c r="B25" s="17">
+      <c r="A25" s="20"/>
+      <c r="B25" s="15">
         <v>24</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="13"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="9">
         <v>25</v>
       </c>
@@ -1355,56 +1376,68 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:B4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="55.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="16"/>
+      <c r="C1" s="13" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="17" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="18" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="19" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
